--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.09741972584266666</v>
+        <v>0.05476816042933333</v>
       </c>
       <c r="R2">
-        <v>0.8767775325839999</v>
+        <v>0.492913443864</v>
       </c>
       <c r="S2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="T2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>12.10211</v>
       </c>
       <c r="I3">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J3">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>0.25743608392</v>
       </c>
       <c r="S3">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="T3">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>13.918871</v>
       </c>
       <c r="I4">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J4">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>0.296082223912</v>
       </c>
       <c r="S4">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="T4">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
     </row>
   </sheetData>
